--- a/src/com/tiket_kereta/DataTables/DataAplikasiKereta.xlsx
+++ b/src/com/tiket_kereta/DataTables/DataAplikasiKereta.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -37,25 +37,31 @@
     <t>Tarif</t>
   </si>
   <si>
-    <t>ID Pesanan</t>
-  </si>
-  <si>
-    <t>Nama</t>
-  </si>
-  <si>
-    <t>Telepon</t>
-  </si>
-  <si>
-    <t>Jumlah Kursi</t>
-  </si>
-  <si>
-    <t>Total Pesanan</t>
-  </si>
-  <si>
-    <t>KODE VOUCHER</t>
-  </si>
-  <si>
-    <t>DISCOUNT</t>
+    <t>MESoeGam170709</t>
+  </si>
+  <si>
+    <t>Malabaraja Ekonomi</t>
+  </si>
+  <si>
+    <t>Soekarno-Hatta</t>
+  </si>
+  <si>
+    <t>Gambir</t>
+  </si>
+  <si>
+    <t>170722</t>
+  </si>
+  <si>
+    <t>09.00</t>
+  </si>
+  <si>
+    <t>MEGamCim180709</t>
+  </si>
+  <si>
+    <t>Cimahi</t>
+  </si>
+  <si>
+    <t>180722</t>
   </si>
 </sst>
 </file>
@@ -100,7 +106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -129,6 +135,52 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6000.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15000.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -136,66 +188,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>